--- a/data/trans_bre/P5_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_1-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,21%</t>
+          <t>14,33%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 3,95</t>
+          <t>-12,75; 17,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 6,24</t>
+          <t>-5,56; 20,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 8,56</t>
+          <t>-23,47; 45,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,84; 13,11</t>
+          <t>-10,16; 56,87</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,75</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,58%</t>
+          <t>-10,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,54%</t>
+          <t>-9,37%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,13; -2,33</t>
+          <t>-14,3; 3,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,18; -0,88</t>
+          <t>-12,7; 3,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,11; -4,78</t>
+          <t>-24,97; 7,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -1,93</t>
+          <t>-22,6; 7,84</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,65%</t>
+          <t>-7,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,5%</t>
+          <t>-9,44%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 6,65</t>
+          <t>-12,56; 6,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 3,74</t>
+          <t>-13,04; 4,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 16,37</t>
+          <t>-25,71; 17,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 9,44</t>
+          <t>-26,46; 11,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,72</t>
+          <t>-7,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,53%</t>
+          <t>-10,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,25%</t>
+          <t>-14,16%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,74; -0,93</t>
+          <t>-10,41; 0,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,07; -1,31</t>
+          <t>-13,52; 0,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,49; -1,9</t>
+          <t>-19,21; 0,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,91; -2,69</t>
+          <t>-24,68; 0,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-4,71</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-4,48</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-9,43%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-9,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; -0,5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; -0,3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-16,27; -1,05</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-16,91; -0,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P5_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_1-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,7%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,33%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.8066730378714304</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.750734244438354</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.01700729066114689</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1217286617419377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,75; 17,5</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,56; 20,62</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-23,47; 45,78</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 56,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.74910613039722</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.473411411328314</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.2347270051144747</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1056636385588045</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.49503645642162</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.73507589308159</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.4578115864657193</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.4897392378500926</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,58</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,92</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-10,7%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-9,37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,3; 3,57</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,7; 3,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-24,97; 7,91</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-22,6; 7,84</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-5.577836535720781</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-5.546462483805853</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1070095474790179</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.1052359702920082</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,11</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,24</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-7,26%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-9,44%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-14.29776222899132</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-13.34724361209753</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.24971973051744</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2338224989361075</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,56; 6,31</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,04; 4,68</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-25,71; 17,32</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-26,46; 11,76</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.572931630538798</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.570126966059661</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.07911991854900327</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.07574459447387365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-5,27</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-7,23</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-10,32%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-14,16%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.114979288930875</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.35380093332524</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.07257149839144086</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.0541771137824011</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-10,41; 0,25</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-13,52; 0,4</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-19,21; 0,43</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-24,68; 0,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.5644505307975</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.29424808951624</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.2571489918496225</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2328103571670008</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.308774301745506</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.001581151339805</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.17321697347373</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.1840482787579425</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-4,71</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-4,48</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-9,43%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-9,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,43; -0,5</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-8,83; -0,3</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-16,27; -1,05</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-16,91; -0,53</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-3.716728765389044</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.295907316639079</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.07713995130817151</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.04739940471376346</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.648367484476259</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.454001325035764</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1906039114871579</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1476806425662205</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.238526818856835</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.658322383231245</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.04464297933157296</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.08046218586424787</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
